--- a/Algoritmo_Rota/Planilhas_Unitario/A_Estrela_Euclidiano/PLN_81_40.xlsx
+++ b/Algoritmo_Rota/Planilhas_Unitario/A_Estrela_Euclidiano/PLN_81_40.xlsx
@@ -454,7 +454,7 @@
         <v>12987</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2433559894561768</v>
+        <v>0.2866787910461426</v>
       </c>
     </row>
   </sheetData>
